--- a/level-3/hackerearth-phase-3-mathematics/hackerearth-phase-3-mathematics.xlsx
+++ b/level-3/hackerearth-phase-3-mathematics/hackerearth-phase-3-mathematics.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C105F04E-B9C7-4AB3-97D4-DE889B4C8137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4256ED-0B8A-4C0E-85D0-7B05B40AAAAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="170">
   <si>
     <t>Problem Link</t>
   </si>
@@ -318,6 +318,213 @@
   </si>
   <si>
     <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/candy-distribution-4/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/mancunian-and-birthday-gifts-d44faa15/</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/divisible-digits/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/string-sets-1-d9d9e893/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/m-good-arrays/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/education-enumeration/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/permutation-intersections/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/average-sum/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/killjee-and-2-factor-8f3ac3a5/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/count-numbers-7/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/counting-bipartite-graphs-b7517e70/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/inclusion-exclusion/practice-problems/algorithm/important-killers-5990f168/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/last-question-3b04d266-f6d8f210/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/future-failure-d516bdf2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/summing-the-weird-series-12c1cec6/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/innocent-swaps-and-his-emotions-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/killjee-and-base-x-b6698888/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/permutaions-and-querys-52af7b15/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/stuck-in-an-infinite-grid-49ff62d2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/influential-groups-f5b40db9/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/counting-quadruples-of-points-26250f44/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/counting-stars-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/power-set-game-3/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/combinatorics/basics-of-combinatorics/practice-problems/algorithm/tv-and-remote-183262c5/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/totient-function/practice-problems/algorithm/kasrioo-145db44b/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/totient-function/practice-problems/algorithm/monk-and-etf/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/shweta-riddhima-and-their-happiness-b-5d887f21-8afc8d25/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/prime-ministers-number/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/misha-and-divisor-sum-6104d81d/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/perfect-cubes-9fa08e3e/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/the-euler-conjecture-96cd269e/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/war-begin/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/roy-and-rangoli-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/coprcopr/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/smithnumbers/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/little-jhool-and-his-primes/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/help-rachit-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/save-girlfriend/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/primality-tests/practice-problems/algorithm/nakul-and-gold-coins/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/as-fast-as-possible-2c144111/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/output-of-function-14aa5863/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/decide-nahi-hai/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/numbers-summation/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/b-prime-counting/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/hacker-with-prime-bebe28ac/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/bet-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-2/practice-problems/algorithm/4141/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/connected-components-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/f-lukas-and-stickman/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/modulo-fermats-theorem-728658be/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/bob-and-mathematics-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/golf/annoying-criteria/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/course-of-study-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/mancunian-and-multiplicative-queries-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/archery-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/candy-distribution-3-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/the-dragon-type-123/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/the-final-fight-6/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/viva-time/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/beautiful-primes/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/diedie/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/a-to-b-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/joseph-and-arrayaugclash/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/mancunian-and-pandigital-numbers-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/rhezo-and-big-powers-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/name-count/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/lucky-string-jackpot-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/kala-set/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/math/number-theory/basic-number-theory-1/practice-problems/algorithm/great-arjit-and-numbers/</t>
   </si>
 </sst>
 </file>
@@ -390,14 +597,14 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -483,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,14 +720,11 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -549,12 +753,28 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1038,78 +1258,78 @@
     <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C190)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C190)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D190)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E190)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F190)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G190)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H190)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1118,7 +1338,7 @@
       </c>
       <c r="J3" s="5">
         <f>COUNTA(J4:J880)</f>
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1138,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1158,7 +1378,7 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1179,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1200,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1217,11 +1437,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H24" si="0">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H24" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1238,11 +1458,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1259,11 +1479,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1280,11 +1500,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1301,11 +1521,11 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1322,11 +1542,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1343,11 +1563,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1364,11 +1584,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1385,11 +1605,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1406,11 +1626,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1427,11 +1647,11 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1448,11 +1668,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1469,11 +1689,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1490,11 +1710,11 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1511,11 +1731,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1532,11 +1752,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1553,11 +1773,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="22" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1574,11 +1794,11 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="7">
-        <f>SUM(C25:G25)</f>
+        <f t="shared" ref="H25:H34" si="2">SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1595,11 +1815,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f>SUM(C26:G26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1616,11 +1836,11 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="7">
-        <f>SUM(C27:G27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1637,11 +1857,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1658,11 +1878,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1679,11 +1899,11 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1700,11 +1920,11 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="22" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1721,11 +1941,11 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="7">
-        <f>SUM(C32:G32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1742,11 +1962,11 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="7">
-        <f>SUM(C33:G33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1763,11 +1983,11 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="7">
-        <f>SUM(C34:G34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1784,10 +2004,10 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="7">
-        <f t="shared" ref="H35:H36" si="1">SUM(C35:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="12" t="s">
+        <f t="shared" ref="H35:H36" si="3">SUM(C35:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1804,589 +2024,721 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="7">
-        <f>SUM(C37:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>47</v>
+      <c r="H37" s="11">
+        <f t="shared" ref="H37:H66" si="4">SUM(C37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="22" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="7">
-        <f>SUM(C38:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>48</v>
+      <c r="H38" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="7">
-        <f>SUM(C39:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>49</v>
+      <c r="H39" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="22" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="7">
-        <f>SUM(C40:G40)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>50</v>
+      <c r="H40" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="7">
-        <f>SUM(C41:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>51</v>
+      <c r="H41" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="22" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="7">
-        <f>SUM(C42:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>52</v>
+      <c r="H42" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="7">
-        <f>SUM(C43:G43)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>53</v>
+      <c r="H43" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="22" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="7">
-        <f>SUM(C44:G44)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>54</v>
+      <c r="H44" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="22" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="7">
-        <f>SUM(C45:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>55</v>
+      <c r="H45" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="7">
-        <f>SUM(C46:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>56</v>
+      <c r="H46" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="7">
-        <f>SUM(C47:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>57</v>
+      <c r="H47" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="7">
-        <f>SUM(C48:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>58</v>
+      <c r="H48" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="22" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7">
-        <f>SUM(C49:G49)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7">
-        <f>SUM(C50:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7">
-        <f>SUM(C51:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7">
-        <f>SUM(C52:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7">
-        <f>SUM(C53:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7">
-        <f>SUM(C54:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="22" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7">
-        <f>SUM(C55:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>66</v>
+        <v>102</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="7">
-        <f>SUM(C56:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>67</v>
+        <v>102</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="7">
-        <f>SUM(C57:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="7">
-        <f>SUM(C58:G58)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>69</v>
+        <v>102</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7">
-        <f t="shared" ref="H59:H70" si="2">SUM(C59:G59)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>77</v>
+        <v>102</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="23" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>78</v>
+        <v>102</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="23" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>79</v>
+        <f t="shared" ref="H67:H103" si="5">SUM(C67:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>81</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>82</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2394,20 +2746,19 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="7">
-        <f>SUM(C71:G71)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="11" t="s">
-        <v>83</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2415,41 +2766,39 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="7">
-        <f>SUM(C72:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="11" t="s">
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="7">
-        <f>SUM(C73:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="11" t="s">
-        <v>85</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2457,59 +2806,56 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="7">
-        <f>SUM(C74:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="11" t="s">
-        <v>86</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="7">
-        <f t="shared" ref="H75:H76" si="3">SUM(C75:G75)</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="11" t="s">
-        <v>87</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="11" t="s">
-        <v>88</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>1</v>
@@ -2520,918 +2866,1404 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="7">
-        <f>SUM(C77:G77)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="7">
-        <f t="shared" ref="H78:H87" si="4">SUM(C78:G78)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>93</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>94</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+        <v>1</v>
+      </c>
       <c r="H82" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>95</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="12" t="s">
-        <v>96</v>
+      <c r="H83" s="11">
+        <f t="shared" ref="H83:H97" si="6">SUM(C83:G83)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>97</v>
+      <c r="H84" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="12" t="s">
-        <v>98</v>
+      <c r="H85" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="12" t="s">
-        <v>99</v>
+      <c r="H86" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="23" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="12" t="s">
-        <v>100</v>
+      <c r="H87" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="11"/>
+      <c r="A88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="23" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="11"/>
+      <c r="A89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="23" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="11"/>
+      <c r="A90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="11"/>
+      <c r="A91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="23" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="11"/>
+      <c r="A92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="23" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="11"/>
+      <c r="A93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="23" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="11"/>
+      <c r="A94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="23" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="11"/>
+      <c r="A95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="11"/>
+      <c r="A96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="23" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="11"/>
+      <c r="A97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="23" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="11"/>
+      <c r="A98" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="23" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="11"/>
+      <c r="A99" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="11"/>
+      <c r="A100" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="23" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="11"/>
+      <c r="A101" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="11"/>
+      <c r="A102" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="23" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="11"/>
+      <c r="A103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="11"/>
+      <c r="A104" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" s="7">
+        <f t="shared" ref="H104:H115" si="7">SUM(C104:G104)</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="11"/>
+      <c r="A105" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="11"/>
+      <c r="A106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="11"/>
+      <c r="A107" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H107" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="23" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="11"/>
+      <c r="A108" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="11"/>
+      <c r="A109" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="23" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="7"/>
-      <c r="J110" s="12"/>
+      <c r="A110" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="7"/>
-      <c r="J111" s="12"/>
+      <c r="A111" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H111" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="7"/>
-      <c r="J112" s="12"/>
+      <c r="A112" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="7"/>
-      <c r="J113" s="12"/>
+      <c r="A113" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="7"/>
-      <c r="J114" s="12"/>
+      <c r="A114" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="7"/>
-      <c r="J115" s="12"/>
+      <c r="A115" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="23" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="A116" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="7"/>
-      <c r="J116" s="12"/>
+      <c r="H116" s="7">
+        <f>SUM(C116:G116)</f>
+        <v>0</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="A117" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
-      <c r="H117" s="7"/>
-      <c r="J117" s="12"/>
+      <c r="H117" s="7">
+        <f>SUM(C117:G117)</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="H118" s="7"/>
-      <c r="J118" s="12"/>
+      <c r="A118" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
+        <f>SUM(C118:G118)</f>
+        <v>0</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="22" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="H119" s="7"/>
-      <c r="J119" s="12"/>
+      <c r="A119" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="7">
+        <f>SUM(C119:G119)</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="H120" s="7"/>
-      <c r="J120" s="12"/>
+      <c r="A120" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="7">
+        <f t="shared" ref="H120:H121" si="8">SUM(C120:G120)</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="H121" s="7"/>
-      <c r="J121" s="12"/>
+      <c r="A121" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="H122" s="7"/>
-      <c r="J122" s="12"/>
+      <c r="A122" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="11">
+        <f t="shared" ref="H122:H134" si="9">SUM(C122:G122)</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="12"/>
+      <c r="J122" s="22" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="H123" s="7"/>
-      <c r="J123" s="12"/>
+      <c r="A123" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="12"/>
+      <c r="J123" s="22" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="H124" s="7"/>
-      <c r="J124" s="12"/>
+      <c r="A124" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="12"/>
+      <c r="J124" s="22" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="H125" s="7"/>
-      <c r="J125" s="12"/>
+      <c r="A125" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="12"/>
+      <c r="J125" s="22" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="H126" s="7"/>
-      <c r="J126" s="12"/>
+      <c r="A126" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="12"/>
+      <c r="J126" s="22" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="H127" s="7"/>
-      <c r="J127" s="12"/>
+      <c r="A127" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="12"/>
+      <c r="J127" s="22" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="H128" s="7"/>
-      <c r="J128" s="12"/>
+      <c r="A128" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="12"/>
+      <c r="J128" s="22" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="H129" s="7"/>
-      <c r="J129" s="12"/>
+      <c r="A129" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="12"/>
+      <c r="J129" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="H130" s="7"/>
-      <c r="J130" s="12"/>
+      <c r="A130" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="12"/>
+      <c r="J130" s="22" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="H131" s="7"/>
-      <c r="J131" s="12"/>
+      <c r="A131" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="12"/>
+      <c r="J131" s="22" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="H132" s="7"/>
-      <c r="J132" s="12"/>
+      <c r="A132" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="12"/>
+      <c r="J132" s="22" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="11"/>
+      <c r="A133" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="23" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="11"/>
+      <c r="A134" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="23" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="11"/>
+      <c r="A135" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="7">
+        <f t="shared" ref="H135:H144" si="10">SUM(C135:G135)</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="23" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="11"/>
+      <c r="A136" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="23" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="A137" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="11"/>
+      <c r="H137" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="23" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="11"/>
+      <c r="A138" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="A139" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="11"/>
+      <c r="H139" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="23" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="11"/>
+      <c r="A140" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="11"/>
+      <c r="A141" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="23" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="A142" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="11"/>
+      <c r="H142" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="23" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="A143" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="11"/>
+      <c r="H143" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="23" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
+      <c r="A144" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
-      <c r="H144" s="7"/>
-      <c r="J144" s="12"/>
+      <c r="H144" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="23" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="A145" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
-      <c r="H145" s="7"/>
-      <c r="J145" s="12"/>
+      <c r="H145" s="11">
+        <f t="shared" ref="H145:H155" si="11">SUM(C145:G145)</f>
+        <v>0</v>
+      </c>
+      <c r="J145" s="23" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
+      <c r="A146" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
-      <c r="H146" s="7"/>
-      <c r="J146" s="12"/>
+      <c r="H146" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="23" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
+      <c r="A147" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
-      <c r="H147" s="7"/>
-      <c r="J147" s="12"/>
+      <c r="H147" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="23" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
+      <c r="A148" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
-      <c r="H148" s="7"/>
-      <c r="J148" s="12"/>
+      <c r="H148" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="23" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
+      <c r="A149" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
-      <c r="H149" s="7"/>
-      <c r="J149" s="12"/>
+      <c r="H149" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="23" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
+      <c r="A150" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
-      <c r="H150" s="7"/>
-      <c r="J150" s="12"/>
+      <c r="H150" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="23" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
+      <c r="A151" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
-      <c r="H151" s="7"/>
-      <c r="J151" s="12"/>
+      <c r="H151" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="23" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="7"/>
-      <c r="J152" s="12"/>
+      <c r="A152" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="23" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="7"/>
-      <c r="J153" s="12"/>
+      <c r="A153" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
+      <c r="A154" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
-      <c r="H154" s="7"/>
-      <c r="J154" s="12"/>
+      <c r="H154" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="23" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="7"/>
-      <c r="J155" s="12"/>
+      <c r="A155" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="23" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
@@ -3442,7 +4274,7 @@
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
       <c r="H156" s="7"/>
-      <c r="J156" s="12"/>
+      <c r="J156" s="23"/>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
@@ -3453,7 +4285,7 @@
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="7"/>
-      <c r="J157" s="12"/>
+      <c r="J157" s="23"/>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
@@ -3464,7 +4296,7 @@
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="7"/>
-      <c r="J158" s="12"/>
+      <c r="J158" s="23"/>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
@@ -3475,7 +4307,7 @@
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="7"/>
-      <c r="J159" s="12"/>
+      <c r="J159" s="23"/>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
@@ -3486,7 +4318,7 @@
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="7"/>
-      <c r="J160" s="12"/>
+      <c r="J160" s="23"/>
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
@@ -3497,7 +4329,7 @@
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="7"/>
-      <c r="J161" s="12"/>
+      <c r="J161" s="23"/>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
@@ -3508,7 +4340,7 @@
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="7"/>
-      <c r="J162" s="12"/>
+      <c r="J162" s="23"/>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
@@ -3519,7 +4351,7 @@
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="7"/>
-      <c r="J163" s="12"/>
+      <c r="J163" s="23"/>
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
@@ -3530,7 +4362,7 @@
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
       <c r="H164" s="7"/>
-      <c r="J164" s="12"/>
+      <c r="J164" s="23"/>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
@@ -3541,7 +4373,7 @@
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="7"/>
-      <c r="J165" s="12"/>
+      <c r="J165" s="23"/>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
@@ -3552,7 +4384,7 @@
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
       <c r="H166" s="7"/>
-      <c r="J166" s="12"/>
+      <c r="J166" s="23"/>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
@@ -3563,7 +4395,7 @@
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="7"/>
-      <c r="J167" s="12"/>
+      <c r="J167" s="23"/>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
@@ -3574,367 +4406,367 @@
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="7"/>
-      <c r="J168" s="12"/>
+      <c r="J168" s="23"/>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="H169" s="7"/>
-      <c r="J169" s="12"/>
+      <c r="J169" s="23"/>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="H170" s="7"/>
-      <c r="J170" s="12"/>
+      <c r="J170" s="23"/>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="H171" s="7"/>
-      <c r="J171" s="12"/>
+      <c r="J171" s="23"/>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="H172" s="7"/>
-      <c r="J172" s="12"/>
+      <c r="J172" s="23"/>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="H173" s="7"/>
-      <c r="J173" s="12"/>
+      <c r="J173" s="23"/>
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="H174" s="7"/>
-      <c r="J174" s="12"/>
+      <c r="J174" s="23"/>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="H175" s="7"/>
-      <c r="J175" s="12"/>
+      <c r="J175" s="23"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="H176" s="7"/>
-      <c r="J176" s="12"/>
+      <c r="J176" s="23"/>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="H177" s="7"/>
-      <c r="J177" s="12"/>
+      <c r="J177" s="23"/>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="H178" s="7"/>
-      <c r="J178" s="12"/>
+      <c r="J178" s="23"/>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="H179" s="7"/>
-      <c r="J179" s="12"/>
+      <c r="J179" s="23"/>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="H180" s="7"/>
-      <c r="J180" s="12"/>
+      <c r="J180" s="23"/>
     </row>
     <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="H181" s="7"/>
-      <c r="J181" s="12"/>
+      <c r="J181" s="23"/>
     </row>
     <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="H182" s="7"/>
-      <c r="J182" s="12"/>
+      <c r="J182" s="23"/>
     </row>
     <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="H183" s="7"/>
-      <c r="J183" s="12"/>
+      <c r="J183" s="23"/>
     </row>
     <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="H184" s="7"/>
-      <c r="J184" s="12"/>
+      <c r="J184" s="23"/>
     </row>
     <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="H185" s="7"/>
-      <c r="J185" s="12"/>
+      <c r="J185" s="23"/>
     </row>
     <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="H186" s="7"/>
-      <c r="J186" s="12"/>
+      <c r="J186" s="23"/>
     </row>
     <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="H187" s="7"/>
-      <c r="J187" s="12"/>
+      <c r="J187" s="23"/>
     </row>
     <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="H188" s="7"/>
-      <c r="J188" s="12"/>
+      <c r="J188" s="23"/>
     </row>
     <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="H189" s="7"/>
-      <c r="J189" s="12"/>
+      <c r="J189" s="23"/>
     </row>
     <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="H190" s="7"/>
-      <c r="J190" s="12"/>
+      <c r="J190" s="23"/>
     </row>
     <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="H191" s="7"/>
-      <c r="J191" s="12"/>
+      <c r="J191" s="23"/>
     </row>
     <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="H192" s="7"/>
-      <c r="J192" s="12"/>
+      <c r="J192" s="23"/>
     </row>
     <row r="193" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="H193" s="7"/>
-      <c r="J193" s="12"/>
+      <c r="J193" s="23"/>
     </row>
     <row r="194" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="H194" s="7"/>
-      <c r="J194" s="12"/>
+      <c r="J194" s="23"/>
     </row>
     <row r="195" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="H195" s="7"/>
-      <c r="J195" s="12"/>
+      <c r="J195" s="23"/>
     </row>
     <row r="196" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="H196" s="7"/>
-      <c r="J196" s="12"/>
+      <c r="J196" s="23"/>
     </row>
     <row r="197" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="H197" s="7"/>
-      <c r="J197" s="12"/>
+      <c r="J197" s="23"/>
     </row>
     <row r="198" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="H198" s="7"/>
-      <c r="J198" s="12"/>
+      <c r="J198" s="23"/>
     </row>
     <row r="199" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="H199" s="7"/>
-      <c r="J199" s="12"/>
+      <c r="J199" s="23"/>
     </row>
     <row r="200" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="H200" s="7"/>
-      <c r="J200" s="12"/>
+      <c r="J200" s="23"/>
     </row>
     <row r="201" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="H201" s="7"/>
-      <c r="J201" s="12"/>
+      <c r="J201" s="23"/>
     </row>
     <row r="202" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="H202" s="7"/>
-      <c r="J202" s="12"/>
+      <c r="J202" s="23"/>
     </row>
     <row r="203" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="H203" s="7"/>
-      <c r="J203" s="12"/>
+      <c r="J203" s="23"/>
     </row>
     <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="H204" s="7"/>
-      <c r="J204" s="12"/>
+      <c r="J204" s="23"/>
     </row>
     <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="H205" s="7"/>
-      <c r="J205" s="12"/>
+      <c r="J205" s="23"/>
     </row>
     <row r="206" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="H206" s="7"/>
-      <c r="J206" s="12"/>
+      <c r="J206" s="23"/>
     </row>
     <row r="207" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="H207" s="7"/>
-      <c r="J207" s="12"/>
+      <c r="J207" s="23"/>
     </row>
     <row r="208" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="H208" s="7"/>
-      <c r="J208" s="12"/>
+      <c r="J208" s="23"/>
     </row>
     <row r="209" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="H209" s="7"/>
-      <c r="J209" s="12"/>
+      <c r="J209" s="23"/>
     </row>
     <row r="210" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="H210" s="7"/>
-      <c r="J210" s="12"/>
+      <c r="J210" s="23"/>
     </row>
     <row r="211" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="H211" s="7"/>
-      <c r="J211" s="12"/>
+      <c r="J211" s="23"/>
     </row>
     <row r="212" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="H212" s="7"/>
-      <c r="J212" s="12"/>
+      <c r="J212" s="23"/>
     </row>
     <row r="213" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="H213" s="7"/>
-      <c r="J213" s="12"/>
+      <c r="J213" s="23"/>
     </row>
     <row r="214" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="H214" s="7"/>
-      <c r="J214" s="12"/>
+      <c r="J214" s="23"/>
     </row>
     <row r="215" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="H215" s="7"/>
-      <c r="J215" s="12"/>
+      <c r="J215" s="23"/>
     </row>
     <row r="216" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="H216" s="7"/>
-      <c r="J216" s="12"/>
+      <c r="J216" s="23"/>
     </row>
     <row r="217" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="H217" s="7"/>
-      <c r="J217" s="12"/>
+      <c r="J217" s="23"/>
     </row>
     <row r="218" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="H218" s="7"/>
-      <c r="J218" s="12"/>
+      <c r="J218" s="23"/>
     </row>
     <row r="219" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="H219" s="7"/>
-      <c r="J219" s="12"/>
+      <c r="J219" s="23"/>
     </row>
     <row r="220" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="H220" s="7"/>
-      <c r="J220" s="12"/>
+      <c r="J220" s="23"/>
     </row>
     <row r="221" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="H221" s="7"/>
-      <c r="J221" s="12"/>
+      <c r="J221" s="23"/>
     </row>
     <row r="222" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="H222" s="7"/>
-      <c r="J222" s="12"/>
+      <c r="J222" s="23"/>
     </row>
     <row r="223" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="H223" s="7"/>
-      <c r="J223" s="12"/>
+      <c r="J223" s="23"/>
     </row>
     <row r="224" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="H224" s="7"/>
-      <c r="J224" s="12"/>
+      <c r="J224" s="23"/>
     </row>
     <row r="225" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="H225" s="7"/>
-      <c r="J225" s="12"/>
+      <c r="J225" s="23"/>
     </row>
     <row r="226" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="H226" s="7"/>
-      <c r="J226" s="12"/>
+      <c r="J226" s="23"/>
     </row>
     <row r="227" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="H227" s="7"/>
-      <c r="J227" s="12"/>
+      <c r="J227" s="23"/>
     </row>
     <row r="228" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="H228" s="7"/>
-      <c r="J228" s="12"/>
+      <c r="J228" s="23"/>
     </row>
     <row r="229" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
@@ -4220,98 +5052,103 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J89">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J155">
+    <cfRule type="cellIs" dxfId="19" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J133:J135 J137:J140">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+  <conditionalFormatting sqref="I37:J38">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J136">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J141">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J133:J141">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J142">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J142">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J143">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J143">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+  <conditionalFormatting sqref="J122:J124 J126:J129">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133:I135 I137:I140">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="I122:I124 I126:I129">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="I125">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I141">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="I130">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133:I141">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="I122:I130">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J130">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J122:J130">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J131">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J131">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J132">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J132">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4349,59 +5186,127 @@
     <hyperlink ref="J34" r:id="rId31" xr:uid="{53780A7F-3EFA-4245-99AE-EE2638FDB836}"/>
     <hyperlink ref="J35" r:id="rId32" xr:uid="{662C86F5-46FD-4391-828D-A82DFAF49587}"/>
     <hyperlink ref="J36" r:id="rId33" xr:uid="{F7240C83-0B32-44E8-BD73-C0974B2BF434}"/>
-    <hyperlink ref="J37" r:id="rId34" xr:uid="{FA0E2FC6-657A-4ECA-B446-6339CFAA5104}"/>
-    <hyperlink ref="J38" r:id="rId35" xr:uid="{60467696-A59A-4B81-AB92-34BBBA8557FD}"/>
-    <hyperlink ref="J39" r:id="rId36" xr:uid="{1B159734-5FFF-4768-B4BE-737CE3422BD6}"/>
-    <hyperlink ref="J40" r:id="rId37" xr:uid="{A1D40E1D-2BC2-4CCD-BF0A-16346E8E2AC1}"/>
-    <hyperlink ref="J41" r:id="rId38" xr:uid="{EF74DA83-736D-49EF-8331-5392A528B4CE}"/>
-    <hyperlink ref="J42" r:id="rId39" xr:uid="{85A94AC6-2BCE-4C2D-BDD6-6FB631B3025E}"/>
-    <hyperlink ref="J43" r:id="rId40" xr:uid="{718467E6-E6AF-42FB-9119-DA430368C482}"/>
-    <hyperlink ref="J44" r:id="rId41" xr:uid="{23D4A55A-599D-4D70-B446-A01F5131C98C}"/>
-    <hyperlink ref="J45" r:id="rId42" xr:uid="{41586CCE-7C36-413F-85FA-56F8812001E2}"/>
-    <hyperlink ref="J46" r:id="rId43" xr:uid="{B37CBC0E-0360-4002-8E6A-E47AA0CF6FC5}"/>
-    <hyperlink ref="J47" r:id="rId44" xr:uid="{3B8095A5-E6CC-493C-8E6C-D698B9386A1B}"/>
-    <hyperlink ref="J48" r:id="rId45" xr:uid="{24B5AD40-5547-4A0C-8304-8AD23F4D878B}"/>
-    <hyperlink ref="J49" r:id="rId46" xr:uid="{E0D2D505-64D8-4128-9EA4-C840B8DFE5C5}"/>
-    <hyperlink ref="J50" r:id="rId47" xr:uid="{4BC32845-B9F8-41D3-8AFB-E455331E236B}"/>
-    <hyperlink ref="J51" r:id="rId48" xr:uid="{7327AB63-AC38-4DB1-8DDA-00D46C0AE198}"/>
-    <hyperlink ref="J52" r:id="rId49" xr:uid="{FAC21F93-8B4E-462E-8D6B-01BB39482740}"/>
-    <hyperlink ref="J53" r:id="rId50" xr:uid="{ED631F35-F2E1-49DC-9951-25D3064E9CE4}"/>
-    <hyperlink ref="J54" r:id="rId51" xr:uid="{470DA57E-FBC7-4902-BC6A-B9466BB903FA}"/>
-    <hyperlink ref="J55" r:id="rId52" xr:uid="{3229C62A-E0F0-4C29-95DB-E29436ABA816}"/>
-    <hyperlink ref="J56" r:id="rId53" xr:uid="{85314FD8-B9DF-448F-B6EC-29B4358649FE}"/>
-    <hyperlink ref="J57" r:id="rId54" xr:uid="{B6A0B053-A0CC-48D9-AB1E-159F95FD8C9C}"/>
-    <hyperlink ref="J58" r:id="rId55" xr:uid="{CB6430DF-5B03-42CD-A21C-C6EE72D7BB94}"/>
-    <hyperlink ref="J59" r:id="rId56" xr:uid="{97B68FEA-4301-448A-84BA-36DCC72250CF}"/>
-    <hyperlink ref="J60" r:id="rId57" xr:uid="{7D32B920-71ED-4BD0-9E43-42FF0CC3E098}"/>
-    <hyperlink ref="J61" r:id="rId58" xr:uid="{3CB9FBF0-164E-4D02-AC48-FE697429C49C}"/>
-    <hyperlink ref="J62" r:id="rId59" xr:uid="{5E2EC829-D485-42A7-8AC2-A1EDD9264316}"/>
-    <hyperlink ref="J63" r:id="rId60" xr:uid="{5ABDB5C5-CDF1-4CF9-AE99-5AFEA0848615}"/>
-    <hyperlink ref="J64" r:id="rId61" xr:uid="{CA87218F-81CA-4742-89E2-78C2C32AA16C}"/>
-    <hyperlink ref="J65" r:id="rId62" xr:uid="{10A762CC-F55F-4136-BAD2-8F25FFDE6B57}"/>
-    <hyperlink ref="J66" r:id="rId63" xr:uid="{135B828A-93E2-4FD3-B8E3-61571A0075A1}"/>
-    <hyperlink ref="J67" r:id="rId64" xr:uid="{BD165CDF-2BBD-47D4-AC52-F2A6F2672701}"/>
-    <hyperlink ref="J68" r:id="rId65" xr:uid="{10615664-0519-4FA8-A7B1-DA46D2DFF7A0}"/>
-    <hyperlink ref="J69" r:id="rId66" xr:uid="{31239865-87C7-46D1-B1FE-BB0629B5D496}"/>
-    <hyperlink ref="J70" r:id="rId67" xr:uid="{049307A7-6A7C-4C20-9C2C-34B53336AFF5}"/>
-    <hyperlink ref="J71" r:id="rId68" xr:uid="{40F8842C-7525-4776-BF5A-8C56A2217DD6}"/>
-    <hyperlink ref="J72" r:id="rId69" xr:uid="{D20DE5E6-789A-4250-9D88-8FE1A590DA2F}"/>
-    <hyperlink ref="J73" r:id="rId70" xr:uid="{9ED9C3EF-F932-4777-AAF8-10C07110DA88}"/>
-    <hyperlink ref="J74" r:id="rId71" xr:uid="{A1F0F953-81D6-4B7C-AEF2-C93A71955E21}"/>
-    <hyperlink ref="J75" r:id="rId72" xr:uid="{41FEB94A-4B6D-45BD-B8A7-1F499CE46D6E}"/>
-    <hyperlink ref="J76" r:id="rId73" xr:uid="{EDAA4985-725B-45B6-9124-CCED1B3982FC}"/>
-    <hyperlink ref="J77" r:id="rId74" xr:uid="{49A8B05F-FBDC-4C82-BC64-8BD563BCF831}"/>
-    <hyperlink ref="J78" r:id="rId75" xr:uid="{DE2BA0DD-3EF1-4220-925A-7392FBBAC911}"/>
-    <hyperlink ref="J79" r:id="rId76" xr:uid="{D9B67442-9D3A-42BE-9DC2-3A16B16F967B}"/>
-    <hyperlink ref="J80" r:id="rId77" xr:uid="{91346CD0-C1B1-4D2F-9DA0-DC08F8190261}"/>
-    <hyperlink ref="J81" r:id="rId78" xr:uid="{A5756C55-24CE-480D-A955-A4728AD6493E}"/>
-    <hyperlink ref="J82" r:id="rId79" xr:uid="{91E37B7E-ABEE-4FC6-8428-65BD2710CA24}"/>
-    <hyperlink ref="J83" r:id="rId80" xr:uid="{71BDC83B-4B76-4307-8EC8-C53633240520}"/>
-    <hyperlink ref="J84" r:id="rId81" xr:uid="{E84AE133-A641-4D26-931D-32403DCF28D5}"/>
-    <hyperlink ref="J85" r:id="rId82" xr:uid="{0422BE0F-9753-4701-9555-7456F0EFE283}"/>
-    <hyperlink ref="J86" r:id="rId83" xr:uid="{C3FE060F-BA6C-426E-B40B-525323B42AAF}"/>
-    <hyperlink ref="J87" r:id="rId84" xr:uid="{47563757-D75F-467C-8E4F-6966B1D4A4A9}"/>
+    <hyperlink ref="J67" r:id="rId34" xr:uid="{FA0E2FC6-657A-4ECA-B446-6339CFAA5104}"/>
+    <hyperlink ref="J68" r:id="rId35" xr:uid="{60467696-A59A-4B81-AB92-34BBBA8557FD}"/>
+    <hyperlink ref="J69" r:id="rId36" xr:uid="{1B159734-5FFF-4768-B4BE-737CE3422BD6}"/>
+    <hyperlink ref="J70" r:id="rId37" xr:uid="{A1D40E1D-2BC2-4CCD-BF0A-16346E8E2AC1}"/>
+    <hyperlink ref="J71" r:id="rId38" xr:uid="{EF74DA83-736D-49EF-8331-5392A528B4CE}"/>
+    <hyperlink ref="J72" r:id="rId39" xr:uid="{85A94AC6-2BCE-4C2D-BDD6-6FB631B3025E}"/>
+    <hyperlink ref="J73" r:id="rId40" xr:uid="{718467E6-E6AF-42FB-9119-DA430368C482}"/>
+    <hyperlink ref="J74" r:id="rId41" xr:uid="{23D4A55A-599D-4D70-B446-A01F5131C98C}"/>
+    <hyperlink ref="J75" r:id="rId42" xr:uid="{41586CCE-7C36-413F-85FA-56F8812001E2}"/>
+    <hyperlink ref="J76" r:id="rId43" xr:uid="{B37CBC0E-0360-4002-8E6A-E47AA0CF6FC5}"/>
+    <hyperlink ref="J77" r:id="rId44" xr:uid="{3B8095A5-E6CC-493C-8E6C-D698B9386A1B}"/>
+    <hyperlink ref="J78" r:id="rId45" xr:uid="{24B5AD40-5547-4A0C-8304-8AD23F4D878B}"/>
+    <hyperlink ref="J79" r:id="rId46" xr:uid="{E0D2D505-64D8-4128-9EA4-C840B8DFE5C5}"/>
+    <hyperlink ref="J80" r:id="rId47" xr:uid="{4BC32845-B9F8-41D3-8AFB-E455331E236B}"/>
+    <hyperlink ref="J81" r:id="rId48" xr:uid="{7327AB63-AC38-4DB1-8DDA-00D46C0AE198}"/>
+    <hyperlink ref="J82" r:id="rId49" xr:uid="{FAC21F93-8B4E-462E-8D6B-01BB39482740}"/>
+    <hyperlink ref="J98" r:id="rId50" xr:uid="{ED631F35-F2E1-49DC-9951-25D3064E9CE4}"/>
+    <hyperlink ref="J99" r:id="rId51" xr:uid="{470DA57E-FBC7-4902-BC6A-B9466BB903FA}"/>
+    <hyperlink ref="J100" r:id="rId52" xr:uid="{3229C62A-E0F0-4C29-95DB-E29436ABA816}"/>
+    <hyperlink ref="J101" r:id="rId53" xr:uid="{85314FD8-B9DF-448F-B6EC-29B4358649FE}"/>
+    <hyperlink ref="J102" r:id="rId54" xr:uid="{B6A0B053-A0CC-48D9-AB1E-159F95FD8C9C}"/>
+    <hyperlink ref="J103" r:id="rId55" xr:uid="{CB6430DF-5B03-42CD-A21C-C6EE72D7BB94}"/>
+    <hyperlink ref="J104" r:id="rId56" xr:uid="{97B68FEA-4301-448A-84BA-36DCC72250CF}"/>
+    <hyperlink ref="J105" r:id="rId57" xr:uid="{7D32B920-71ED-4BD0-9E43-42FF0CC3E098}"/>
+    <hyperlink ref="J106" r:id="rId58" xr:uid="{3CB9FBF0-164E-4D02-AC48-FE697429C49C}"/>
+    <hyperlink ref="J107" r:id="rId59" xr:uid="{5E2EC829-D485-42A7-8AC2-A1EDD9264316}"/>
+    <hyperlink ref="J108" r:id="rId60" xr:uid="{5ABDB5C5-CDF1-4CF9-AE99-5AFEA0848615}"/>
+    <hyperlink ref="J109" r:id="rId61" xr:uid="{CA87218F-81CA-4742-89E2-78C2C32AA16C}"/>
+    <hyperlink ref="J110" r:id="rId62" xr:uid="{10A762CC-F55F-4136-BAD2-8F25FFDE6B57}"/>
+    <hyperlink ref="J111" r:id="rId63" xr:uid="{135B828A-93E2-4FD3-B8E3-61571A0075A1}"/>
+    <hyperlink ref="J112" r:id="rId64" xr:uid="{BD165CDF-2BBD-47D4-AC52-F2A6F2672701}"/>
+    <hyperlink ref="J113" r:id="rId65" xr:uid="{10615664-0519-4FA8-A7B1-DA46D2DFF7A0}"/>
+    <hyperlink ref="J114" r:id="rId66" xr:uid="{31239865-87C7-46D1-B1FE-BB0629B5D496}"/>
+    <hyperlink ref="J115" r:id="rId67" xr:uid="{049307A7-6A7C-4C20-9C2C-34B53336AFF5}"/>
+    <hyperlink ref="J116" r:id="rId68" xr:uid="{40F8842C-7525-4776-BF5A-8C56A2217DD6}"/>
+    <hyperlink ref="J117" r:id="rId69" xr:uid="{D20DE5E6-789A-4250-9D88-8FE1A590DA2F}"/>
+    <hyperlink ref="J118" r:id="rId70" xr:uid="{9ED9C3EF-F932-4777-AAF8-10C07110DA88}"/>
+    <hyperlink ref="J119" r:id="rId71" xr:uid="{A1F0F953-81D6-4B7C-AEF2-C93A71955E21}"/>
+    <hyperlink ref="J120" r:id="rId72" xr:uid="{41FEB94A-4B6D-45BD-B8A7-1F499CE46D6E}"/>
+    <hyperlink ref="J121" r:id="rId73" xr:uid="{EDAA4985-725B-45B6-9124-CCED1B3982FC}"/>
+    <hyperlink ref="J134" r:id="rId74" xr:uid="{49A8B05F-FBDC-4C82-BC64-8BD563BCF831}"/>
+    <hyperlink ref="J135" r:id="rId75" xr:uid="{DE2BA0DD-3EF1-4220-925A-7392FBBAC911}"/>
+    <hyperlink ref="J136" r:id="rId76" xr:uid="{D9B67442-9D3A-42BE-9DC2-3A16B16F967B}"/>
+    <hyperlink ref="J137" r:id="rId77" xr:uid="{91346CD0-C1B1-4D2F-9DA0-DC08F8190261}"/>
+    <hyperlink ref="J138" r:id="rId78" xr:uid="{A5756C55-24CE-480D-A955-A4728AD6493E}"/>
+    <hyperlink ref="J139" r:id="rId79" xr:uid="{91E37B7E-ABEE-4FC6-8428-65BD2710CA24}"/>
+    <hyperlink ref="J140" r:id="rId80" xr:uid="{71BDC83B-4B76-4307-8EC8-C53633240520}"/>
+    <hyperlink ref="J141" r:id="rId81" xr:uid="{E84AE133-A641-4D26-931D-32403DCF28D5}"/>
+    <hyperlink ref="J142" r:id="rId82" xr:uid="{0422BE0F-9753-4701-9555-7456F0EFE283}"/>
+    <hyperlink ref="J143" r:id="rId83" xr:uid="{C3FE060F-BA6C-426E-B40B-525323B42AAF}"/>
+    <hyperlink ref="J144" r:id="rId84" xr:uid="{47563757-D75F-467C-8E4F-6966B1D4A4A9}"/>
+    <hyperlink ref="J37" r:id="rId85" xr:uid="{3454355D-8E83-433A-BC22-708A30F7754D}"/>
+    <hyperlink ref="J38" r:id="rId86" xr:uid="{42CFAD2A-1F6E-4004-B68E-C4C501140ADE}"/>
+    <hyperlink ref="J39" r:id="rId87" xr:uid="{66F022CD-F723-4148-A65E-F72A2FD08E15}"/>
+    <hyperlink ref="J40" r:id="rId88" xr:uid="{6748DB92-1B73-45A1-BB55-23778F6E7B84}"/>
+    <hyperlink ref="J41" r:id="rId89" xr:uid="{21242770-23DB-4092-9862-F95B4CD17FCE}"/>
+    <hyperlink ref="J42" r:id="rId90" xr:uid="{B3ED13AA-865A-443C-8E86-D5C1AD898625}"/>
+    <hyperlink ref="J43" r:id="rId91" xr:uid="{6096C61E-78DB-4FA5-98FC-C4EEAA5B9B0F}"/>
+    <hyperlink ref="J44" r:id="rId92" xr:uid="{D930AEF7-2F83-48EF-9E7F-0CF2239B5A70}"/>
+    <hyperlink ref="J45" r:id="rId93" xr:uid="{2DC99744-89A9-47D9-997F-35113837EFA4}"/>
+    <hyperlink ref="J46" r:id="rId94" xr:uid="{A684827E-CC62-414A-8267-58A64E22E27C}"/>
+    <hyperlink ref="J47" r:id="rId95" xr:uid="{104BFCEA-F67B-409B-843A-B6F633E52D69}"/>
+    <hyperlink ref="J48" r:id="rId96" xr:uid="{0BDFBBA1-4B61-44B7-9D38-C561A551737E}"/>
+    <hyperlink ref="J49" r:id="rId97" xr:uid="{FE9E6779-1ECF-4D7C-B53F-E1861F317FF2}"/>
+    <hyperlink ref="J50" r:id="rId98" xr:uid="{1B6959C4-BB1E-4F3B-91F4-4D5E395AA26D}"/>
+    <hyperlink ref="J51" r:id="rId99" xr:uid="{C97C3628-99B5-4880-BAB7-63A1899F369A}"/>
+    <hyperlink ref="J52" r:id="rId100" xr:uid="{EDD92841-3F43-49DD-9626-D40F337D30FC}"/>
+    <hyperlink ref="J53" r:id="rId101" xr:uid="{CA84DE7C-AEB3-4ABC-8769-BE5E82611CAB}"/>
+    <hyperlink ref="J54" r:id="rId102" xr:uid="{0BFF4068-52E2-48C8-B956-BCA376D3DFF6}"/>
+    <hyperlink ref="J55" r:id="rId103" xr:uid="{DE3380FE-8982-460B-AFE0-324C1F15BF9A}"/>
+    <hyperlink ref="J56" r:id="rId104" xr:uid="{D10F8D42-759F-4913-8060-EF6364E1D0CE}"/>
+    <hyperlink ref="J57" r:id="rId105" xr:uid="{D77FBDC0-21B0-406D-BB20-E1F8EDA3264E}"/>
+    <hyperlink ref="J58" r:id="rId106" xr:uid="{100311D4-BD2D-4F59-B168-BFB36FCA881B}"/>
+    <hyperlink ref="J59" r:id="rId107" xr:uid="{91F2A94E-1E47-4ACE-91B7-077C91419855}"/>
+    <hyperlink ref="J60" r:id="rId108" xr:uid="{8C6EEB44-A23D-458A-87C2-3B57C1513027}"/>
+    <hyperlink ref="J61" r:id="rId109" xr:uid="{56B056FA-0164-43F1-B9E7-4CBD346D4849}"/>
+    <hyperlink ref="J62" r:id="rId110" xr:uid="{3A8CB6F4-EA8D-4FF8-9B37-9E720B7077DA}"/>
+    <hyperlink ref="J63" r:id="rId111" xr:uid="{6E268021-EA9E-4DDA-B6EB-DD2119F9BFFD}"/>
+    <hyperlink ref="J64" r:id="rId112" xr:uid="{88626C6D-8D88-44D6-AABC-A77A6E6AA7D0}"/>
+    <hyperlink ref="J65" r:id="rId113" xr:uid="{3D28FCE4-EF60-4803-B687-BEFC660CB0DA}"/>
+    <hyperlink ref="J66" r:id="rId114" xr:uid="{53811F27-CB3D-43FC-8332-90E283FD7F09}"/>
+    <hyperlink ref="J83" r:id="rId115" xr:uid="{1F8C732A-FA05-4068-88B8-7F1B9203A231}"/>
+    <hyperlink ref="J84" r:id="rId116" xr:uid="{BF0AE463-57A4-42DB-A763-A5D438DABE32}"/>
+    <hyperlink ref="J85" r:id="rId117" xr:uid="{3D6D1264-5B5F-4EC2-8598-ADB92A38F086}"/>
+    <hyperlink ref="J86" r:id="rId118" xr:uid="{4E674FCF-1170-44B1-9EF3-375FB42955CD}"/>
+    <hyperlink ref="J87" r:id="rId119" xr:uid="{AB795812-6CF3-4E40-82E7-ED4C7C1353B2}"/>
+    <hyperlink ref="J88" r:id="rId120" xr:uid="{E3340596-27FC-4A16-B35E-A822B52EA59C}"/>
+    <hyperlink ref="J89" r:id="rId121" xr:uid="{B455A2F9-F15B-4DCC-B93C-FB4A57FE05AF}"/>
+    <hyperlink ref="J90" r:id="rId122" xr:uid="{FE6B4306-1EA8-496D-A293-864B4873778C}"/>
+    <hyperlink ref="J91" r:id="rId123" xr:uid="{5F236F28-2A80-4786-A301-DE4F25D7743D}"/>
+    <hyperlink ref="J92" r:id="rId124" xr:uid="{B26704C4-3EF8-4368-B566-AD1D75895A4B}"/>
+    <hyperlink ref="J93" r:id="rId125" xr:uid="{E8BECAED-9093-470D-A742-7224C2ED5971}"/>
+    <hyperlink ref="J94" r:id="rId126" xr:uid="{137FA5FF-369B-4963-B74A-03509A8FAFBE}"/>
+    <hyperlink ref="J95" r:id="rId127" xr:uid="{495AC2D5-C591-4616-AC5A-BA2DFE2B7505}"/>
+    <hyperlink ref="J96" r:id="rId128" xr:uid="{E16421B9-133E-415F-A7CF-062CE63FB046}"/>
+    <hyperlink ref="J97" r:id="rId129" xr:uid="{3A190F02-DFB5-4745-B6CF-CEFBBE3A156C}"/>
+    <hyperlink ref="J122" r:id="rId130" xr:uid="{0D86BAE2-5006-4792-8394-0E56CA119239}"/>
+    <hyperlink ref="J123" r:id="rId131" xr:uid="{16FFF97D-5121-4F68-9AA9-AAA4667233FA}"/>
+    <hyperlink ref="J124" r:id="rId132" xr:uid="{010ECE3A-E61F-4B33-AD84-3A3E10A4DA5B}"/>
+    <hyperlink ref="J125" r:id="rId133" xr:uid="{97A6127F-F419-426F-B8A1-AEF0F27EBCEA}"/>
+    <hyperlink ref="J126" r:id="rId134" xr:uid="{15BDA017-299D-4C07-822B-E14DC04EA03A}"/>
+    <hyperlink ref="J127" r:id="rId135" xr:uid="{EAA2A5D9-6953-4FC8-85F5-A88736B85CFA}"/>
+    <hyperlink ref="J128" r:id="rId136" xr:uid="{8208D43B-76BA-4508-9B37-EDF25A3EB75D}"/>
+    <hyperlink ref="J129" r:id="rId137" xr:uid="{EBF638F7-81A2-413B-8F9A-64AB054EC374}"/>
+    <hyperlink ref="J130" r:id="rId138" xr:uid="{2ECAF9C9-A5FE-450F-BB35-3EBE3B3CD2A1}"/>
+    <hyperlink ref="J131" r:id="rId139" xr:uid="{D0757EEC-3D92-4F38-BE88-05C04121AEC1}"/>
+    <hyperlink ref="J132" r:id="rId140" xr:uid="{24BAABD4-90E2-453A-B404-3A07AC1DFB19}"/>
+    <hyperlink ref="J133" r:id="rId141" xr:uid="{FB3BC911-2EFD-4AD9-A41B-132DF85A65C8}"/>
+    <hyperlink ref="J145" r:id="rId142" xr:uid="{D587350E-6448-4183-8F66-946549E6627A}"/>
+    <hyperlink ref="J146" r:id="rId143" xr:uid="{1CB67C77-51F3-4663-A6CB-5BD1320BE7B0}"/>
+    <hyperlink ref="J147" r:id="rId144" xr:uid="{756EB5F0-75D6-4182-AC05-2122A1F9FE76}"/>
+    <hyperlink ref="J148" r:id="rId145" xr:uid="{92868571-D1D4-405A-8FAC-E64C983B3033}"/>
+    <hyperlink ref="J149" r:id="rId146" xr:uid="{444813C2-EA33-4EB0-8010-52CB8097D5F5}"/>
+    <hyperlink ref="J150" r:id="rId147" xr:uid="{B912ADEC-F784-4AA7-9DBA-94E2D574C104}"/>
+    <hyperlink ref="J151" r:id="rId148" xr:uid="{E5ED1801-259B-4B83-AEE4-8B53F5DFF267}"/>
+    <hyperlink ref="J152" r:id="rId149" xr:uid="{2083784D-2824-4902-A0FE-289ECEE9757C}"/>
+    <hyperlink ref="J153" r:id="rId150" xr:uid="{3317650F-5817-47A0-AA62-578EEBF4F91D}"/>
+    <hyperlink ref="J154" r:id="rId151" xr:uid="{D9160BDC-8980-4201-B346-D7392E8EC0B9}"/>
+    <hyperlink ref="J155" r:id="rId152" xr:uid="{6D751514-F603-4EB9-942C-F5B970F38DE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId153"/>
 </worksheet>
 </file>